--- a/contitions.xlsx
+++ b/contitions.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasnitschke/Documents/sbtg_sociel_believe_trust_game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\userdata\jonasn84\shared\experiments\sbtg_pp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9E23BB-5106-3244-B2AF-43F759E4659E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C77E1A36-8D9E-CF42-88D0-0089FC5ED564}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
-  <si>
-    <t>correctResponse</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="11">
   <si>
     <t>playerId</t>
   </si>
@@ -44,22 +40,37 @@
     <t>actionLabel</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Paul</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Lukas</t>
   </si>
   <si>
-    <t>trust</t>
+    <t>avatarFile</t>
   </si>
   <si>
-    <t>defect</t>
+    <t>images/avatar1.jpg</t>
+  </si>
+  <si>
+    <t>images/avatar2.jpg</t>
+  </si>
+  <si>
+    <t>choiceLabel</t>
+  </si>
+  <si>
+    <t>reciprocate</t>
+  </si>
+  <si>
+    <t>keep the investment</t>
+  </si>
+  <si>
+    <t>actionRound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -404,71 +415,720 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF7B120-AB9C-9A49-BE5D-3B48EBF8054A}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E41">
+    <sortCondition ref="E2:E41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/contitions.xlsx
+++ b/contitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="14">
   <si>
     <t>playerId</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>actionRound</t>
+  </si>
+  <si>
+    <t>PlayerA</t>
+  </si>
+  <si>
+    <t>playerAn</t>
+  </si>
+  <si>
+    <t>PlayerB</t>
   </si>
 </sst>
 </file>
@@ -416,718 +425,841 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
       </c>
       <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E41">
-    <sortCondition ref="E2:E41"/>
+  <sortState ref="B2:F41">
+    <sortCondition ref="F2:F41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contitions.xlsx
+++ b/contitions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\userdata\jonasn84\shared\experiments\sbtg_pp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\userdata\jonasn84\shared\experiments\soBeU_pp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
   <si>
     <t>playerId</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,18 +494,18 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -514,18 +514,18 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -628,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -648,10 +648,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -679,19 +679,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -699,19 +699,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -719,13 +719,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -748,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -768,10 +768,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -788,10 +788,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -859,73 +859,73 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -968,10 +968,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -988,10 +988,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1119,19 +1119,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -1148,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1168,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1188,10 +1188,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1254,6 +1254,86 @@
         <v>1</v>
       </c>
       <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
     </row>
@@ -1262,5 +1342,6 @@
     <sortCondition ref="F2:F41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/contitions.xlsx
+++ b/contitions.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -479,13 +479,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>

--- a/contitions.xlsx
+++ b/contitions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="15">
   <si>
     <t>playerId</t>
   </si>
@@ -75,6 +75,9 @@
   <si>
     <t>PlayerB</t>
   </si>
+  <si>
+    <t>counter</t>
+  </si>
 </sst>
 </file>
 
@@ -89,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,921 +436,1056 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
       </c>
       <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
       </c>
       <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:F41">
-    <sortCondition ref="F2:F41"/>
+  <sortState ref="C2:G41">
+    <sortCondition ref="G2:G41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
